--- a/config_Release/lwzb_game_config.xlsx
+++ b/config_Release/lwzb_game_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -171,33 +171,6 @@
   </si>
   <si>
     <t>lwzb_bet_limit_9</t>
-  </si>
-  <si>
-    <t>200000,200000,200000,200000</t>
-  </si>
-  <si>
-    <t>500000,500000,500000,500000</t>
-  </si>
-  <si>
-    <t>1000000,1000000,1000000,1000000</t>
-  </si>
-  <si>
-    <t>2000000,2000000,2000000,2000000</t>
-  </si>
-  <si>
-    <t>3000000,3000000,3000000,3000000</t>
-  </si>
-  <si>
-    <t>4000000,4000000,4000000,4000000</t>
-  </si>
-  <si>
-    <t>5000000,5000000,5000000,5000000</t>
-  </si>
-  <si>
-    <t>8000000,8000000,8000000,8000000</t>
-  </si>
-  <si>
-    <t>10000000,10000000,10000000,10000000</t>
   </si>
   <si>
     <r>
@@ -324,42 +297,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2000000,2000000,2000000,2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,5000000,5000000,5000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000,10000000,10000000,10000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000,20000000,20000000,20000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000000,30000000,30000000,30000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000000,40000000,40000000,40000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,50000000,50000000,50000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000,80000000,80000000,80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000,100000000,100000000,100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>财神巨奖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -369,6 +306,134 @@
   </si>
   <si>
     <t>财神奖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,50000,50000,50000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,200000,200000,200000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,500000,500000,500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1000000,1000000,1000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,2000000,2000000,2000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,3000000,3000000,3000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000,4000000,4000000,4000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,5000000,5000000,5000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,10000000,10000000,10000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,20000000,20000000,20000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000,30000000,30000000,30000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000,800000,800000,800000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000000,6000000,6000000,6000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000,8000000,8000000,8000000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -478,7 +543,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,9 +569,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -834,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -845,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -1715,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -1769,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
@@ -1786,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -1803,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -1820,10 +1882,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="11" t="s">
         <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -1837,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="10" t="s">
         <v>58</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1854,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="10" t="s">
         <v>59</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1871,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="11" t="s">
         <v>60</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -1888,10 +1950,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1905,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1922,10 +1984,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1939,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>12</v>
@@ -1950,265 +2012,265 @@
     </row>
     <row r="53" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="181" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D181" s="12"/>
+      <c r="D181" s="11"/>
     </row>
     <row r="182" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D182" s="12"/>
+      <c r="D182" s="11"/>
     </row>
     <row r="183" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D183" s="12"/>
+      <c r="D183" s="11"/>
     </row>
     <row r="236" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D236" s="13"/>
+      <c r="D236" s="12"/>
     </row>
     <row r="249" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D249" s="13"/>
+      <c r="D249" s="12"/>
     </row>
     <row r="250" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D250" s="13"/>
+      <c r="D250" s="12"/>
     </row>
     <row r="251" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D251" s="13"/>
+      <c r="D251" s="12"/>
     </row>
     <row r="252" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D252" s="13"/>
+      <c r="D252" s="12"/>
     </row>
     <row r="253" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D253" s="13"/>
+      <c r="D253" s="12"/>
     </row>
     <row r="254" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D254" s="13"/>
+      <c r="D254" s="12"/>
     </row>
     <row r="255" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D255" s="13"/>
+      <c r="D255" s="12"/>
     </row>
     <row r="256" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D256" s="13"/>
+      <c r="D256" s="12"/>
     </row>
     <row r="257" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D257" s="13"/>
+      <c r="D257" s="12"/>
     </row>
     <row r="258" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D258" s="13"/>
+      <c r="D258" s="12"/>
     </row>
     <row r="259" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D259" s="13"/>
+      <c r="D259" s="12"/>
     </row>
     <row r="260" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D260" s="13"/>
+      <c r="D260" s="12"/>
     </row>
     <row r="261" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D261" s="13"/>
+      <c r="D261" s="12"/>
     </row>
     <row r="262" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D262" s="13"/>
+      <c r="D262" s="12"/>
     </row>
     <row r="263" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D263" s="13"/>
+      <c r="D263" s="12"/>
     </row>
     <row r="264" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D264" s="13"/>
+      <c r="D264" s="12"/>
     </row>
     <row r="265" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D265" s="13"/>
+      <c r="D265" s="12"/>
     </row>
     <row r="266" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D266" s="13"/>
+      <c r="D266" s="12"/>
     </row>
     <row r="267" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D267" s="13"/>
+      <c r="D267" s="12"/>
     </row>
     <row r="268" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D268" s="13"/>
+      <c r="D268" s="12"/>
     </row>
     <row r="269" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D269" s="13"/>
+      <c r="D269" s="12"/>
     </row>
     <row r="270" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D270" s="13"/>
+      <c r="D270" s="12"/>
     </row>
     <row r="271" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D271" s="13"/>
+      <c r="D271" s="12"/>
     </row>
     <row r="272" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D272" s="13"/>
+      <c r="D272" s="12"/>
     </row>
     <row r="273" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D273" s="13"/>
+      <c r="D273" s="12"/>
     </row>
     <row r="274" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D274" s="13"/>
+      <c r="D274" s="12"/>
     </row>
     <row r="275" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D275" s="13"/>
+      <c r="D275" s="12"/>
     </row>
     <row r="276" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D276" s="13"/>
+      <c r="D276" s="12"/>
     </row>
     <row r="277" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D277" s="13"/>
+      <c r="D277" s="12"/>
     </row>
     <row r="278" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D278" s="13"/>
+      <c r="D278" s="12"/>
     </row>
     <row r="279" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D279" s="13"/>
+      <c r="D279" s="12"/>
     </row>
     <row r="280" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D280" s="13"/>
+      <c r="D280" s="12"/>
     </row>
     <row r="281" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D281" s="13"/>
+      <c r="D281" s="12"/>
     </row>
     <row r="282" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D282" s="13"/>
+      <c r="D282" s="12"/>
     </row>
     <row r="283" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D283" s="13"/>
+      <c r="D283" s="12"/>
     </row>
     <row r="284" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D284" s="13"/>
+      <c r="D284" s="12"/>
     </row>
     <row r="285" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D285" s="13"/>
+      <c r="D285" s="12"/>
     </row>
     <row r="286" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D286" s="13"/>
+      <c r="D286" s="12"/>
     </row>
     <row r="287" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D287" s="13"/>
+      <c r="D287" s="12"/>
     </row>
     <row r="288" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D288" s="13"/>
+      <c r="D288" s="12"/>
     </row>
     <row r="289" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D289" s="13"/>
+      <c r="D289" s="12"/>
     </row>
     <row r="290" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D290" s="13"/>
+      <c r="D290" s="12"/>
     </row>
     <row r="291" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D291" s="13"/>
+      <c r="D291" s="12"/>
     </row>
     <row r="292" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D292" s="13"/>
+      <c r="D292" s="12"/>
     </row>
     <row r="293" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D293" s="13"/>
+      <c r="D293" s="12"/>
     </row>
     <row r="294" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D294" s="13"/>
+      <c r="D294" s="12"/>
     </row>
     <row r="295" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D295" s="13"/>
+      <c r="D295" s="12"/>
     </row>
     <row r="296" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D296" s="13"/>
+      <c r="D296" s="12"/>
     </row>
     <row r="297" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D297" s="13"/>
+      <c r="D297" s="12"/>
     </row>
     <row r="298" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D298" s="13"/>
+      <c r="D298" s="12"/>
     </row>
     <row r="299" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D299" s="13"/>
+      <c r="D299" s="12"/>
     </row>
     <row r="300" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D300" s="13"/>
+      <c r="D300" s="12"/>
     </row>
     <row r="301" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D301" s="13"/>
+      <c r="D301" s="12"/>
     </row>
     <row r="302" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D302" s="13"/>
+      <c r="D302" s="12"/>
     </row>
     <row r="303" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D303" s="13"/>
+      <c r="D303" s="12"/>
     </row>
     <row r="304" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D304" s="13"/>
+      <c r="D304" s="12"/>
     </row>
     <row r="305" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D305" s="13"/>
+      <c r="D305" s="12"/>
     </row>
     <row r="306" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D306" s="13"/>
+      <c r="D306" s="12"/>
     </row>
     <row r="307" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D307" s="13"/>
+      <c r="D307" s="12"/>
     </row>
     <row r="308" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D308" s="13"/>
+      <c r="D308" s="12"/>
     </row>
     <row r="309" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D309" s="13"/>
+      <c r="D309" s="12"/>
     </row>
     <row r="310" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D310" s="13"/>
+      <c r="D310" s="12"/>
     </row>
     <row r="311" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D311" s="13"/>
+      <c r="D311" s="12"/>
     </row>
     <row r="312" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D312" s="13"/>
+      <c r="D312" s="12"/>
     </row>
     <row r="313" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D313" s="13"/>
+      <c r="D313" s="12"/>
     </row>
     <row r="314" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D314" s="13"/>
+      <c r="D314" s="12"/>
     </row>
     <row r="315" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D315" s="13"/>
+      <c r="D315" s="12"/>
     </row>
     <row r="316" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D316" s="13"/>
+      <c r="D316" s="12"/>
     </row>
     <row r="317" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D317" s="13"/>
+      <c r="D317" s="12"/>
     </row>
     <row r="318" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D318" s="13"/>
+      <c r="D318" s="12"/>
     </row>
     <row r="319" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D319" s="13"/>
+      <c r="D319" s="12"/>
     </row>
     <row r="320" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D320" s="13"/>
+      <c r="D320" s="12"/>
     </row>
     <row r="321" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D321" s="13"/>
+      <c r="D321" s="12"/>
     </row>
     <row r="322" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D322" s="13"/>
+      <c r="D322" s="12"/>
     </row>
     <row r="323" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D323" s="13"/>
+      <c r="D323" s="12"/>
     </row>
     <row r="324" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D324" s="13"/>
+      <c r="D324" s="12"/>
     </row>
     <row r="325" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D325" s="13"/>
+      <c r="D325" s="12"/>
     </row>
     <row r="326" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D326" s="13"/>
+      <c r="D326" s="12"/>
     </row>
     <row r="327" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D327" s="13"/>
+      <c r="D327" s="12"/>
     </row>
     <row r="328" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D328" s="13"/>
+      <c r="D328" s="12"/>
     </row>
     <row r="329" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D329" s="13"/>
+      <c r="D329" s="12"/>
     </row>
     <row r="330" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D330" s="13"/>
+      <c r="D330" s="12"/>
     </row>
     <row r="331" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D331" s="13"/>
+      <c r="D331" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2237,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -2291,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
@@ -2308,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -2325,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -2342,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="11" t="s">
         <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -2359,10 +2421,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="10" t="s">
         <v>58</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -2376,10 +2438,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="10" t="s">
         <v>59</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2393,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="11" t="s">
         <v>60</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -2410,10 +2472,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2427,10 +2489,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2444,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2461,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>12</v>
@@ -2771,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>18</v>
@@ -2785,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
@@ -2799,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -2910,7 +2972,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7">
         <v>5</v>
@@ -2918,7 +2980,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -2935,14 +2997,14 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="40.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2950,13 +3012,13 @@
         <v>26</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
@@ -2972,14 +3034,14 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>39</v>
+      <c r="C2" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2">
-        <v>200000</v>
+      <c r="E2" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -2992,14 +3054,14 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>40</v>
+      <c r="C3" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3">
-        <v>500000</v>
+      <c r="E3" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -3012,14 +3074,14 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>41</v>
+      <c r="C4" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
-      <c r="E4">
-        <v>1000000</v>
+      <c r="E4" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -3032,14 +3094,14 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>42</v>
+      <c r="C5" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>2000000</v>
+      <c r="E5" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -3052,14 +3114,14 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>43</v>
+      <c r="C6" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
-      <c r="E6">
-        <v>3000000</v>
+      <c r="E6" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -3072,14 +3134,14 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>44</v>
+      <c r="C7" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
-      <c r="E7">
-        <v>4000000</v>
+      <c r="E7" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -3092,14 +3154,14 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>45</v>
+      <c r="C8" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8">
-        <v>5000000</v>
+      <c r="E8" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -3112,14 +3174,14 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>46</v>
+      <c r="C9" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
-      <c r="E9">
-        <v>8000000</v>
+      <c r="E9" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -3132,14 +3194,14 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>47</v>
+      <c r="C10" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
-      <c r="E10">
-        <v>10000000</v>
+      <c r="E10" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
@@ -3152,14 +3214,14 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>73</v>
+      <c r="C11" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="D11">
         <v>30</v>
       </c>
-      <c r="E11">
-        <v>2000000</v>
+      <c r="E11" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
@@ -3172,14 +3234,14 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>74</v>
+      <c r="C12" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="E12">
-        <v>5000000</v>
+      <c r="E12" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="F12" t="s">
         <v>31</v>
@@ -3192,14 +3254,14 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>75</v>
+      <c r="C13" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="D13">
         <v>30</v>
       </c>
-      <c r="E13">
-        <v>10000000</v>
+      <c r="E13" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -3212,14 +3274,14 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>76</v>
+      <c r="C14" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="D14">
         <v>30</v>
       </c>
-      <c r="E14">
-        <v>20000000</v>
+      <c r="E14" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -3232,14 +3294,14 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>77</v>
+      <c r="C15" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="D15">
         <v>30</v>
       </c>
-      <c r="E15">
-        <v>30000000</v>
+      <c r="E15" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -3252,14 +3314,14 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>78</v>
+      <c r="C16" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
-      <c r="E16">
-        <v>40000000</v>
+      <c r="E16" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -3272,14 +3334,14 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>79</v>
+      <c r="C17" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
-      <c r="E17">
-        <v>50000000</v>
+      <c r="E17" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
@@ -3292,14 +3354,14 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>80</v>
+      <c r="C18" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="D18">
         <v>30</v>
       </c>
-      <c r="E18">
-        <v>80000000</v>
+      <c r="E18" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -3312,14 +3374,14 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>81</v>
+      <c r="C19" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="D19">
         <v>30</v>
       </c>
-      <c r="E19">
-        <v>100000000</v>
+      <c r="E19" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>

--- a/config_Release/lwzb_game_config.xlsx
+++ b/config_Release/lwzb_game_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="rate|" sheetId="7" r:id="rId1"/>
@@ -865,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
@@ -2937,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2967,7 +2967,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_Release/lwzb_game_config.xlsx
+++ b/config_Release/lwzb_game_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="rate|" sheetId="7" r:id="rId1"/>
@@ -2937,7 +2937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2975,7 +2975,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2983,7 +2983,7 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2996,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3038,7 +3038,7 @@
         <v>67</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>78</v>
@@ -3058,7 +3058,7 @@
         <v>68</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>79</v>
@@ -3078,7 +3078,7 @@
         <v>69</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>80</v>
@@ -3098,7 +3098,7 @@
         <v>96</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>81</v>
@@ -3118,7 +3118,7 @@
         <v>70</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>82</v>
@@ -3138,7 +3138,7 @@
         <v>71</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>83</v>
@@ -3158,7 +3158,7 @@
         <v>72</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>84</v>
@@ -3178,7 +3178,7 @@
         <v>73</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>85</v>
@@ -3198,7 +3198,7 @@
         <v>74</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>86</v>
@@ -3218,7 +3218,7 @@
         <v>70</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>87</v>
@@ -3238,7 +3238,7 @@
         <v>71</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>88</v>
@@ -3258,7 +3258,7 @@
         <v>72</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>89</v>
@@ -3278,7 +3278,7 @@
         <v>74</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>90</v>
@@ -3298,7 +3298,7 @@
         <v>97</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>91</v>
@@ -3318,7 +3318,7 @@
         <v>98</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>92</v>
@@ -3338,7 +3338,7 @@
         <v>75</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>93</v>
@@ -3358,7 +3358,7 @@
         <v>76</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>94</v>
@@ -3378,7 +3378,7 @@
         <v>77</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>95</v>
